--- a/data/icnarc+usiss/ICU Flu Stats.xlsx
+++ b/data/icnarc+usiss/ICU Flu Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Downloads\_covid_19\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\flu-stats\data\icnarc+usiss\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D25462-39C0-4C74-91EF-7BF005B2C88D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5652181-E0D4-4446-B5FD-4C983872DB26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{0017EBF0-D51D-4265-A8B7-129D21E6D98A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>UK</t>
   </si>
@@ -77,6 +77,12 @@
   <si>
     <t>Influenza 2019/2020</t>
   </si>
+  <si>
+    <t>https://www.gov.uk/government/statistics/annual-flu-reports</t>
+  </si>
+  <si>
+    <t>Data from PHE annual flu reports</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,19 +130,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -148,12 +162,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -162,15 +177,18 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -354,9 +372,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FIgures!$A$6:$A$12</c:f>
+              <c:f>FIgures!$A$6:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Influenza 2015/2016</c:v>
                 </c:pt>
@@ -372,10 +390,10 @@
                 <c:pt idx="4">
                   <c:v>Influenza 2019/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>COVID-19 up to 31 Aug</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>COVID-19 after 1 Sep</c:v>
                 </c:pt>
               </c:strCache>
@@ -383,10 +401,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIgures!$B$6:$B$12</c:f>
+              <c:f>FIgures!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2462</c:v>
                 </c:pt>
@@ -402,11 +420,11 @@
                 <c:pt idx="4">
                   <c:v>1802</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>10916</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5773</c:v>
+                <c:pt idx="7">
+                  <c:v>12115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,7 +460,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -470,15 +488,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5132-453E-92DC-465FE2559B30}"/>
+                <c16:uniqueId val="{00000001-A51A-4B45-824F-B3CF2871B32C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>FIgures!$A$6:$A$12</c:f>
+              <c:f>FIgures!$A$6:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Influenza 2015/2016</c:v>
                 </c:pt>
@@ -494,10 +512,10 @@
                 <c:pt idx="4">
                   <c:v>Influenza 2019/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>COVID-19 up to 31 Aug</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>COVID-19 after 1 Sep</c:v>
                 </c:pt>
               </c:strCache>
@@ -505,10 +523,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIgures!$C$6:$C$12</c:f>
+              <c:f>FIgures!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>209</c:v>
                 </c:pt>
@@ -524,11 +542,11 @@
                 <c:pt idx="4">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4304</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>2089.826</c:v>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>4567.3550000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,9 +928,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>FIgures!$A$6:$A$12</c:f>
+              <c:f>FIgures!$A$6:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Influenza 2015/2016</c:v>
                 </c:pt>
@@ -928,10 +946,10 @@
                 <c:pt idx="4">
                   <c:v>Influenza 2019/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>COVID-19 up to 31 Aug</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>COVID-19 after 1 Sep</c:v>
                 </c:pt>
               </c:strCache>
@@ -939,10 +957,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIgures!$B$6:$B$12</c:f>
+              <c:f>FIgures!$B$6:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>2462</c:v>
                 </c:pt>
@@ -958,11 +976,11 @@
                 <c:pt idx="4">
                   <c:v>1802</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>10916</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5773</c:v>
+                <c:pt idx="7">
+                  <c:v>12115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,7 +1370,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1380,15 +1398,15 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B16F-4F8E-A6D4-E37876696F37}"/>
+                <c16:uniqueId val="{00000001-B94B-464E-B8CE-2DA1250D3C7B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>FIgures!$A$6:$A$12</c:f>
+              <c:f>FIgures!$A$6:$A$13</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Influenza 2015/2016</c:v>
                 </c:pt>
@@ -1404,10 +1422,10 @@
                 <c:pt idx="4">
                   <c:v>Influenza 2019/2020</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>COVID-19 up to 31 Aug</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>COVID-19 after 1 Sep</c:v>
                 </c:pt>
               </c:strCache>
@@ -1415,10 +1433,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FIgures!$C$6:$C$12</c:f>
+              <c:f>FIgures!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>209</c:v>
                 </c:pt>
@@ -1434,11 +1452,11 @@
                 <c:pt idx="4">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4304</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
-                  <c:v>2089.826</c:v>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>4567.3550000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,10 +3981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1475F5AD-615D-490D-A874-EA44557AD9E9}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3980,7 +3998,7 @@
     <col min="8" max="8" width="12.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4049,17 +4067,17 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="10">
         <v>1396</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="11">
         <v>142</v>
       </c>
-      <c r="D5" s="8">
-        <f t="shared" ref="D5:D11" si="1">C5/B5</f>
+      <c r="D5" s="12">
+        <f t="shared" ref="D5:D12" si="1">C5/B5</f>
         <v>0.10171919770773639</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1">
         <v>1187</v>
       </c>
@@ -4196,39 +4214,50 @@
         <v>4.6987951807228916E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>10916</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4304</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="2">
         <f t="shared" si="1"/>
         <v>0.3942836203737633</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
-        <v>5773</v>
-      </c>
-      <c r="C12" s="11">
-        <f>B12*D12</f>
-        <v>2089.826</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.36199999999999999</v>
+      <c r="B13" s="1">
+        <v>12115</v>
+      </c>
+      <c r="C13" s="8">
+        <f>B13*D13</f>
+        <v>4567.3550000000005</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C15" r:id="rId1" xr:uid="{6AB0A71E-913F-4585-A679-CAEF6E5CA5BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
